--- a/end/base/教室导入模板.xlsx
+++ b/end/base/教室导入模板.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\shandong\aqschool\end\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500C92FB-2DC6-4B50-9A4B-F7B0D7036497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80156327-BF96-46D7-9CFF-E336DDAE2FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,12 +54,15 @@
     <t>所在教学楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>严格按照系统上存入的数据名称来填写</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +113,29 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,11 +143,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,6 +188,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J15"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -460,10 +488,12 @@
     <col min="5" max="5" width="15.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="14" style="5" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="8" max="12" width="9" style="5"/>
+    <col min="13" max="13" width="40.125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="20.25" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -487,7 +517,7 @@
       </c>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -498,7 +528,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="6"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -509,7 +539,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="6"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -520,7 +550,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -529,9 +559,15 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
+      <c r="I5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="6"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -540,9 +576,13 @@
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -551,9 +591,13 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -562,9 +606,13 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -574,7 +622,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="6"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -584,7 +632,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -594,7 +642,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="6"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -604,7 +652,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -614,7 +662,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="6"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -624,7 +672,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -634,7 +682,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1065,6 +1113,9 @@
       <c r="H58" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I5:M8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/end/base/教室导入模板.xlsx
+++ b/end/base/教室导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\shandong\aqschool\end\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80156327-BF96-46D7-9CFF-E336DDAE2FCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DE2929-1942-4A0D-9358-D1A3094D60AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,9 +53,6 @@
   <si>
     <t>所在教学楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严格按照系统上存入的数据名称来填写</t>
   </si>
 </sst>
 </file>
@@ -121,41 +118,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -190,8 +166,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +452,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -550,7 +526,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -559,15 +535,13 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -582,7 +556,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -597,7 +571,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1113,9 +1087,6 @@
       <c r="H58" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I5:M8"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
